--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.179930795847751</v>
+        <v>0.210650887573964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.220858895705521</v>
+        <v>0.230419977298524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.296747967479675</v>
+        <v>0.170184696569921</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.328719723183391</v>
+        <v>0.343195266272189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383435582822086</v>
+        <v>0.383654937570942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.353658536585366</v>
+        <v>0.316622691292876</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.510059171597633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.521472392638037</v>
+        <v>0.531214528944381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.621951219512195</v>
+        <v>0.559366754617414</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.134948096885813</v>
+        <v>0.118343195266272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220858895705521</v>
+        <v>0.212258796821793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.199208443271768</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -392,7 +392,7 @@
         <v>0.230419977298524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170184696569921</v>
+        <v>0.169491525423729</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         <v>0.383654937570942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.316622691292876</v>
+        <v>0.315514993481095</v>
       </c>
     </row>
     <row r="4">
@@ -420,7 +420,7 @@
         <v>0.531214528944381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.559366754617414</v>
+        <v>0.559322033898305</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>0.212258796821793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199208443271768</v>
+        <v>0.200782268578879</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.210650887573964</v>
+        <v>0.213305174234424</v>
       </c>
       <c r="C2" t="n">
         <v>0.230419977298524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.169491525423729</v>
+        <v>0.166482910694598</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343195266272189</v>
+        <v>0.347412882787751</v>
       </c>
       <c r="C3" t="n">
         <v>0.383654937570942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315514993481095</v>
+        <v>0.304299889746417</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.510059171597633</v>
+        <v>0.502639915522703</v>
       </c>
       <c r="C4" t="n">
         <v>0.531214528944381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.559322033898305</v>
+        <v>0.560088202866593</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118343195266272</v>
+        <v>0.118268215417107</v>
       </c>
       <c r="C5" t="n">
         <v>0.212258796821793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200782268578879</v>
+        <v>0.205071664829107</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -12,30 +12,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">why_hic_help_lic_responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why_hic_help_lic_interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why_hic_help_lic_duty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why_hic_help_lic_none</t>
+    <t xml:space="preserve">Responsibility: Historical responsibility
+of HICs for situation in LICs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest: Long-term interest of HICs to help LICs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duty: Helping countries in need is the right thing to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above</t>
   </si>
 </sst>
 </file>
@@ -380,61 +402,166 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.213305174234424</v>
+        <v>0.337242704278055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230419977298524</v>
+        <v>0.262071421403225</v>
       </c>
       <c r="D2" t="n">
-        <v>0.166482910694598</v>
+        <v>0.319682601975388</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.148514851485149</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.368503833930367</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.299304347473331</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.336113490984074</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.405181316753714</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.272157431335329</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.215888172513039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.347412882787751</v>
+        <v>0.514656843018661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383654937570942</v>
+        <v>0.503217031770231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.304299889746417</v>
+        <v>0.435006755039462</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.324532453245325</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.490617054464876</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.431405059232998</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.396382993587254</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.231959390835321</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.399399536238222</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.251349733803071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.502639915522703</v>
+        <v>0.457220511038379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.531214528944381</v>
+        <v>0.599764049546094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.560088202866593</v>
+        <v>0.539201523213714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.414741474147415</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.432085481862817</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5943857048782</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.587000595037613</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.46013223398978</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.506197135879451</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.579154751295584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118268215417107</v>
+        <v>0.167982401263503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212258796821793</v>
+        <v>0.0781175039607839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.205071664829107</v>
+        <v>0.0912475578686122</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.284928492849285</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0652933005243475</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0709676154453763</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0865844692736444</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.22623863920524</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.199331886097932</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.210975490534381</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -429,34 +429,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.337242704278055</v>
+        <v>0.31979980464564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.262071421403225</v>
+        <v>0.25119622153343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.319682601975388</v>
+        <v>0.318365447217043</v>
       </c>
       <c r="E2" t="n">
         <v>0.148514851485149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.368503833930367</v>
+        <v>0.360320917931256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.299304347473331</v>
+        <v>0.302200605363288</v>
       </c>
       <c r="H2" t="n">
-        <v>0.336113490984074</v>
+        <v>0.332908160384851</v>
       </c>
       <c r="I2" t="n">
-        <v>0.405181316753714</v>
+        <v>0.419046590650405</v>
       </c>
       <c r="J2" t="n">
-        <v>0.272157431335329</v>
+        <v>0.282600086105561</v>
       </c>
       <c r="K2" t="n">
-        <v>0.215888172513039</v>
+        <v>0.198614155271152</v>
       </c>
     </row>
     <row r="3">
@@ -464,34 +464,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.514656843018661</v>
+        <v>0.486356000934956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.503217031770231</v>
+        <v>0.505718692822254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.435006755039462</v>
+        <v>0.436866997193251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.324532453245325</v>
+        <v>0.324532453245324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.490617054464876</v>
+        <v>0.510119065099174</v>
       </c>
       <c r="G3" t="n">
-        <v>0.431405059232998</v>
+        <v>0.428187121204702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.396382993587254</v>
+        <v>0.400268516684418</v>
       </c>
       <c r="I3" t="n">
-        <v>0.231959390835321</v>
+        <v>0.269903892964258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.399399536238222</v>
+        <v>0.412805573970591</v>
       </c>
       <c r="K3" t="n">
-        <v>0.251349733803071</v>
+        <v>0.248256799531005</v>
       </c>
     </row>
     <row r="4">
@@ -499,34 +499,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.457220511038379</v>
+        <v>0.448846823633399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599764049546094</v>
+        <v>0.597143516854494</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539201523213714</v>
+        <v>0.536545381235737</v>
       </c>
       <c r="E4" t="n">
         <v>0.414741474147415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.432085481862817</v>
+        <v>0.417824851461835</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5943857048782</v>
+        <v>0.592906517672187</v>
       </c>
       <c r="H4" t="n">
-        <v>0.587000595037613</v>
+        <v>0.577997574490286</v>
       </c>
       <c r="I4" t="n">
-        <v>0.46013223398978</v>
+        <v>0.486650712557957</v>
       </c>
       <c r="J4" t="n">
-        <v>0.506197135879451</v>
+        <v>0.512589945323032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.579154751295584</v>
+        <v>0.549745227584751</v>
       </c>
     </row>
     <row r="5">
@@ -534,34 +534,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.167982401263503</v>
+        <v>0.17202468483187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0781175039607839</v>
+        <v>0.0792562268104761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0912475578686122</v>
+        <v>0.0910186840448718</v>
       </c>
       <c r="E5" t="n">
         <v>0.284928492849285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0652933005243475</v>
+        <v>0.0601398583553162</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0709676154453763</v>
+        <v>0.0706515692244099</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0865844692736444</v>
+        <v>0.0827935508178825</v>
       </c>
       <c r="I5" t="n">
-        <v>0.22623863920524</v>
+        <v>0.194248928350138</v>
       </c>
       <c r="J5" t="n">
-        <v>0.199331886097932</v>
+        <v>0.194647210886877</v>
       </c>
       <c r="K5" t="n">
-        <v>0.210975490534381</v>
+        <v>0.231859676581737</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -429,34 +429,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.31979980464564</v>
+        <v>0.286500249471074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25119622153343</v>
+        <v>0.270620911530075</v>
       </c>
       <c r="D2" t="n">
-        <v>0.318365447217043</v>
+        <v>0.294819340289079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.148514851485149</v>
+        <v>0.168701570984965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.360320917931256</v>
+        <v>0.266603745485753</v>
       </c>
       <c r="G2" t="n">
-        <v>0.302200605363288</v>
+        <v>0.309061889435309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.332908160384851</v>
+        <v>0.303370871469071</v>
       </c>
       <c r="I2" t="n">
-        <v>0.419046590650405</v>
+        <v>0.391508837703429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.282600086105561</v>
+        <v>0.269361020016696</v>
       </c>
       <c r="K2" t="n">
-        <v>0.198614155271152</v>
+        <v>0.207317917815421</v>
       </c>
     </row>
     <row r="3">
@@ -464,34 +464,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.486356000934956</v>
+        <v>0.434475703806765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.505718692822254</v>
+        <v>0.487762214829222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.436866997193251</v>
+        <v>0.415274874708083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.324532453245324</v>
+        <v>0.329981187146725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.510119065099174</v>
+        <v>0.357215581316811</v>
       </c>
       <c r="G3" t="n">
-        <v>0.428187121204702</v>
+        <v>0.429007502503261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.400268516684418</v>
+        <v>0.349905517917812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.269903892964258</v>
+        <v>0.332810934274545</v>
       </c>
       <c r="J3" t="n">
-        <v>0.412805573970591</v>
+        <v>0.420284594134621</v>
       </c>
       <c r="K3" t="n">
-        <v>0.248256799531005</v>
+        <v>0.327411697735249</v>
       </c>
     </row>
     <row r="4">
@@ -499,34 +499,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.448846823633399</v>
+        <v>0.458071212814583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.597143516854494</v>
+        <v>0.611992020052036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.536545381235737</v>
+        <v>0.538641277011065</v>
       </c>
       <c r="E4" t="n">
-        <v>0.414741474147415</v>
+        <v>0.450426122094748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.417824851461835</v>
+        <v>0.490030969715307</v>
       </c>
       <c r="G4" t="n">
-        <v>0.592906517672187</v>
+        <v>0.585317265398395</v>
       </c>
       <c r="H4" t="n">
-        <v>0.577997574490286</v>
+        <v>0.595302806634893</v>
       </c>
       <c r="I4" t="n">
-        <v>0.486650712557957</v>
+        <v>0.479507189656761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.512589945323032</v>
+        <v>0.530272330442141</v>
       </c>
       <c r="K4" t="n">
-        <v>0.549745227584751</v>
+        <v>0.55159708164655</v>
       </c>
     </row>
     <row r="5">
@@ -534,34 +534,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17202468483187</v>
+        <v>0.190573973919452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0792562268104761</v>
+        <v>0.104167358222363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0910186840448718</v>
+        <v>0.0838821208493494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.284928492849285</v>
+        <v>0.224678592550897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0601398583553162</v>
+        <v>0.0906707323779559</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0706515692244099</v>
+        <v>0.069818481977013</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0827935508178825</v>
+        <v>0.115388858639177</v>
       </c>
       <c r="I5" t="n">
-        <v>0.194248928350138</v>
+        <v>0.18825843647638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.194647210886877</v>
+        <v>0.193849339997367</v>
       </c>
       <c r="K5" t="n">
-        <v>0.231859676581737</v>
+        <v>0.250521871920657</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility: Historical responsibility
@@ -423,145 +429,175 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.286500249471074</v>
+        <v>0.249755878602184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.270620911530075</v>
+        <v>0.282254823424525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.294819340289079</v>
+        <v>0.273414862201184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.168701570984965</v>
+        <v>0.282806678697078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.266603745485753</v>
+        <v>0.296226566658157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.309061889435309</v>
+        <v>0.287546813615271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.303370871469071</v>
+        <v>0.309264531525013</v>
       </c>
       <c r="I2" t="n">
-        <v>0.391508837703429</v>
+        <v>0.25379821938764</v>
       </c>
       <c r="J2" t="n">
-        <v>0.269361020016696</v>
+        <v>0.288052774561539</v>
       </c>
       <c r="K2" t="n">
-        <v>0.207317917815421</v>
+        <v>0.167983693044554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.318852320301547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.238921544845624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.434475703806765</v>
+        <v>0.389732615365172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.487762214829222</v>
+        <v>0.42380267193953</v>
       </c>
       <c r="D3" t="n">
-        <v>0.415274874708083</v>
+        <v>0.448753998883348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.329981187146725</v>
+        <v>0.493937304691586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.357215581316811</v>
+        <v>0.449439125095651</v>
       </c>
       <c r="G3" t="n">
-        <v>0.429007502503261</v>
+        <v>0.349199594656701</v>
       </c>
       <c r="H3" t="n">
-        <v>0.349905517917812</v>
+        <v>0.346477306394553</v>
       </c>
       <c r="I3" t="n">
-        <v>0.332810934274545</v>
+        <v>0.389580349465346</v>
       </c>
       <c r="J3" t="n">
-        <v>0.420284594134621</v>
+        <v>0.396566947702262</v>
       </c>
       <c r="K3" t="n">
-        <v>0.327411697735249</v>
+        <v>0.328603906357424</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.419238749647306</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.372433194157012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458071212814583</v>
+        <v>0.526729352913413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.611992020052036</v>
+        <v>0.533799416461858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.538641277011065</v>
+        <v>0.424093826995541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.450426122094748</v>
+        <v>0.596077096175956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.490030969715307</v>
+        <v>0.541847605292014</v>
       </c>
       <c r="G4" t="n">
-        <v>0.585317265398395</v>
+        <v>0.482208312614639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.595302806634893</v>
+        <v>0.586375156579137</v>
       </c>
       <c r="I4" t="n">
-        <v>0.479507189656761</v>
+        <v>0.549571460869348</v>
       </c>
       <c r="J4" t="n">
-        <v>0.530272330442141</v>
+        <v>0.524492799180069</v>
       </c>
       <c r="K4" t="n">
-        <v>0.55159708164655</v>
+        <v>0.451153749913637</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.575950049584034</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.544223370340388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190573973919452</v>
+        <v>0.17256755204961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104167358222363</v>
+        <v>0.135773796364407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0838821208493494</v>
+        <v>0.201134450242552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.224678592550897</v>
+        <v>0.112266484207202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0906707323779559</v>
+        <v>0.0758342561267844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.069818481977013</v>
+        <v>0.0905515555101291</v>
       </c>
       <c r="H5" t="n">
-        <v>0.115388858639177</v>
+        <v>0.0992757998374197</v>
       </c>
       <c r="I5" t="n">
-        <v>0.18825843647638</v>
+        <v>0.206771852988189</v>
       </c>
       <c r="J5" t="n">
-        <v>0.193849339997367</v>
+        <v>0.149793870019859</v>
       </c>
       <c r="K5" t="n">
-        <v>0.250521871920657</v>
+        <v>0.225808499604961</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0729389447541638</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.202295716550991</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Interest: Long-term interest of HICs to help LICs</t>
   </si>
   <si>
-    <t xml:space="preserve">Duty: Helping countries in need is the right thing to do.</t>
+    <t xml:space="preserve">Duty: Helping countries in need is the right thing to do</t>
   </si>
   <si>
     <t xml:space="preserve">None of the above</t>
@@ -441,40 +441,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249755878602184</v>
+        <v>0.242213319850292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.282254823424525</v>
+        <v>0.285666018540122</v>
       </c>
       <c r="D2" t="n">
         <v>0.273414862201184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.282806678697078</v>
+        <v>0.28760618469006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.296226566658157</v>
+        <v>0.301523168775342</v>
       </c>
       <c r="G2" t="n">
         <v>0.287546813615271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.309264531525013</v>
+        <v>0.313998853660738</v>
       </c>
       <c r="I2" t="n">
-        <v>0.25379821938764</v>
+        <v>0.258216454469535</v>
       </c>
       <c r="J2" t="n">
-        <v>0.288052774561539</v>
+        <v>0.290893149711863</v>
       </c>
       <c r="K2" t="n">
         <v>0.167983693044554</v>
       </c>
       <c r="L2" t="n">
-        <v>0.318852320301547</v>
+        <v>0.318758844882858</v>
       </c>
       <c r="M2" t="n">
-        <v>0.238921544845624</v>
+        <v>0.21523258370348</v>
       </c>
     </row>
     <row r="3">
@@ -482,40 +482,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.389732615365172</v>
+        <v>0.375550765418927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.42380267193953</v>
+        <v>0.424994383647457</v>
       </c>
       <c r="D3" t="n">
         <v>0.448753998883348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.493937304691586</v>
+        <v>0.487408867735212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.449439125095651</v>
+        <v>0.449811891486997</v>
       </c>
       <c r="G3" t="n">
         <v>0.349199594656701</v>
       </c>
       <c r="H3" t="n">
-        <v>0.346477306394553</v>
+        <v>0.358956767003683</v>
       </c>
       <c r="I3" t="n">
-        <v>0.389580349465346</v>
+        <v>0.394200849355031</v>
       </c>
       <c r="J3" t="n">
-        <v>0.396566947702262</v>
+        <v>0.403538007409961</v>
       </c>
       <c r="K3" t="n">
         <v>0.328603906357424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.419238749647306</v>
+        <v>0.420932319225716</v>
       </c>
       <c r="M3" t="n">
-        <v>0.372433194157012</v>
+        <v>0.333687491803765</v>
       </c>
     </row>
     <row r="4">
@@ -523,40 +523,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.526729352913413</v>
+        <v>0.538214177405237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.533799416461858</v>
+        <v>0.533237986698828</v>
       </c>
       <c r="D4" t="n">
         <v>0.424093826995541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.596077096175956</v>
+        <v>0.592243534511094</v>
       </c>
       <c r="F4" t="n">
-        <v>0.541847605292014</v>
+        <v>0.538072385844198</v>
       </c>
       <c r="G4" t="n">
         <v>0.482208312614639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.586375156579137</v>
+        <v>0.589976446655661</v>
       </c>
       <c r="I4" t="n">
-        <v>0.549571460869348</v>
+        <v>0.549250797064274</v>
       </c>
       <c r="J4" t="n">
-        <v>0.524492799180069</v>
+        <v>0.54591174935907</v>
       </c>
       <c r="K4" t="n">
         <v>0.451153749913637</v>
       </c>
       <c r="L4" t="n">
-        <v>0.575950049584034</v>
+        <v>0.57496089619187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.544223370340388</v>
+        <v>0.575106113850155</v>
       </c>
     </row>
     <row r="5">
@@ -564,40 +564,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17256755204961</v>
+        <v>0.171206660310006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.135773796364407</v>
+        <v>0.135825143020936</v>
       </c>
       <c r="D5" t="n">
         <v>0.201134450242552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.112266484207202</v>
+        <v>0.115718227794332</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0758342561267844</v>
+        <v>0.077712321409945</v>
       </c>
       <c r="G5" t="n">
         <v>0.0905515555101291</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0992757998374197</v>
+        <v>0.0992749534121742</v>
       </c>
       <c r="I5" t="n">
-        <v>0.206771852988189</v>
+        <v>0.201442289880623</v>
       </c>
       <c r="J5" t="n">
-        <v>0.149793870019859</v>
+        <v>0.145889735581809</v>
       </c>
       <c r="K5" t="n">
         <v>0.225808499604961</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0729389447541638</v>
+        <v>0.0716180476871686</v>
       </c>
       <c r="M5" t="n">
-        <v>0.202295716550991</v>
+        <v>0.198780707854999</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -441,40 +441,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242213319850292</v>
+        <v>0.24325226703533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285666018540122</v>
+        <v>0.284827676066753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.273414862201184</v>
+        <v>0.278590620156356</v>
       </c>
       <c r="E2" t="n">
-        <v>0.28760618469006</v>
+        <v>0.282612953680616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.301523168775342</v>
+        <v>0.303609369435084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.287546813615271</v>
+        <v>0.266162725578662</v>
       </c>
       <c r="H2" t="n">
-        <v>0.313998853660738</v>
+        <v>0.32491603673977</v>
       </c>
       <c r="I2" t="n">
-        <v>0.258216454469535</v>
+        <v>0.258149486755586</v>
       </c>
       <c r="J2" t="n">
-        <v>0.290893149711863</v>
+        <v>0.283582061031343</v>
       </c>
       <c r="K2" t="n">
-        <v>0.167983693044554</v>
+        <v>0.170276319804192</v>
       </c>
       <c r="L2" t="n">
-        <v>0.318758844882858</v>
+        <v>0.319866725252478</v>
       </c>
       <c r="M2" t="n">
-        <v>0.21523258370348</v>
+        <v>0.217911934491466</v>
       </c>
     </row>
     <row r="3">
@@ -482,40 +482,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375550765418927</v>
+        <v>0.377542011316107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.424994383647457</v>
+        <v>0.424026808864038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.448753998883348</v>
+        <v>0.446629846330568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.487408867735212</v>
+        <v>0.472312106334949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.449811891486997</v>
+        <v>0.449232696234801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.349199594656701</v>
+        <v>0.375475199491027</v>
       </c>
       <c r="H3" t="n">
-        <v>0.358956767003683</v>
+        <v>0.355387212052856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.394200849355031</v>
+        <v>0.399611579439041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.403538007409961</v>
+        <v>0.391501162760843</v>
       </c>
       <c r="K3" t="n">
-        <v>0.328603906357424</v>
+        <v>0.33206282222506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.420932319225716</v>
+        <v>0.423386545854212</v>
       </c>
       <c r="M3" t="n">
-        <v>0.333687491803765</v>
+        <v>0.338434063522382</v>
       </c>
     </row>
     <row r="4">
@@ -523,40 +523,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.538214177405237</v>
+        <v>0.53781733761675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.533237986698828</v>
+        <v>0.532271261948462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424093826995541</v>
+        <v>0.431801334932739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.592243534511094</v>
+        <v>0.575153922668097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.538072385844198</v>
+        <v>0.53788327000251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.482208312614639</v>
+        <v>0.483925052884538</v>
       </c>
       <c r="H4" t="n">
-        <v>0.589976446655661</v>
+        <v>0.587792278600191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.549250797064274</v>
+        <v>0.557096632785126</v>
       </c>
       <c r="J4" t="n">
-        <v>0.54591174935907</v>
+        <v>0.557679751118942</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451153749913637</v>
+        <v>0.45221408221998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.57496089619187</v>
+        <v>0.576652219380058</v>
       </c>
       <c r="M4" t="n">
-        <v>0.575106113850155</v>
+        <v>0.574598398827391</v>
       </c>
     </row>
     <row r="5">
@@ -564,40 +564,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.171206660310006</v>
+        <v>0.172219239078217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.135825143020936</v>
+        <v>0.138418508709548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201134450242552</v>
+        <v>0.198497254358157</v>
       </c>
       <c r="E5" t="n">
-        <v>0.115718227794332</v>
+        <v>0.130438815865313</v>
       </c>
       <c r="F5" t="n">
-        <v>0.077712321409945</v>
+        <v>0.0778818475132151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0905515555101291</v>
+        <v>0.101994940026898</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0992749534121742</v>
+        <v>0.096355157626865</v>
       </c>
       <c r="I5" t="n">
-        <v>0.201442289880623</v>
+        <v>0.194285082560693</v>
       </c>
       <c r="J5" t="n">
-        <v>0.145889735581809</v>
+        <v>0.153167732379229</v>
       </c>
       <c r="K5" t="n">
-        <v>0.225808499604961</v>
+        <v>0.222600284661277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0716180476871686</v>
+        <v>0.0700225582989938</v>
       </c>
       <c r="M5" t="n">
-        <v>0.198780707854999</v>
+        <v>0.199890167530991</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -435,13 +438,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24325226703533</v>
+        <v>0.243877578611996</v>
       </c>
       <c r="C2" t="n">
         <v>0.284827676066753</v>
@@ -471,18 +477,21 @@
         <v>0.170276319804192</v>
       </c>
       <c r="L2" t="n">
+        <v>0.247714568258493</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.319866725252478</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.217911934491466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.377542011316107</v>
+        <v>0.378073399070132</v>
       </c>
       <c r="C3" t="n">
         <v>0.424026808864038</v>
@@ -512,18 +521,21 @@
         <v>0.33206282222506</v>
       </c>
       <c r="L3" t="n">
+        <v>0.381334060453284</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.423386545854212</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.338434063522382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.53781733761675</v>
+        <v>0.534654268479881</v>
       </c>
       <c r="C4" t="n">
         <v>0.532271261948462</v>
@@ -553,18 +565,21 @@
         <v>0.45221408221998</v>
       </c>
       <c r="L4" t="n">
+        <v>0.515245282652307</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.576652219380058</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.574598398827391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.172219239078217</v>
+        <v>0.164005958768927</v>
       </c>
       <c r="C5" t="n">
         <v>0.138418508709548</v>
@@ -594,9 +609,12 @@
         <v>0.222600284661277</v>
       </c>
       <c r="L5" t="n">
+        <v>0.113608248752788</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.0700225582989938</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.199890167530991</v>
       </c>
     </row>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -447,7 +447,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243877578611996</v>
+        <v>0.2455593528023</v>
       </c>
       <c r="C2" t="n">
         <v>0.284827676066753</v>
@@ -474,16 +474,16 @@
         <v>0.283582061031343</v>
       </c>
       <c r="K2" t="n">
-        <v>0.170276319804192</v>
+        <v>0.170354349596659</v>
       </c>
       <c r="L2" t="n">
-        <v>0.247714568258493</v>
+        <v>0.260087165113423</v>
       </c>
       <c r="M2" t="n">
         <v>0.319866725252478</v>
       </c>
       <c r="N2" t="n">
-        <v>0.217911934491466</v>
+        <v>0.217833100525281</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.378073399070132</v>
+        <v>0.376242148576814</v>
       </c>
       <c r="C3" t="n">
         <v>0.424026808864038</v>
@@ -518,16 +518,16 @@
         <v>0.391501162760843</v>
       </c>
       <c r="K3" t="n">
-        <v>0.33206282222506</v>
+        <v>0.332091953956457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.381334060453284</v>
+        <v>0.368533078351345</v>
       </c>
       <c r="M3" t="n">
         <v>0.423386545854212</v>
       </c>
       <c r="N3" t="n">
-        <v>0.338434063522382</v>
+        <v>0.338459395559222</v>
       </c>
     </row>
     <row r="4">
@@ -535,7 +535,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.534654268479881</v>
+        <v>0.536095833727937</v>
       </c>
       <c r="C4" t="n">
         <v>0.532271261948462</v>
@@ -562,16 +562,16 @@
         <v>0.557679751118942</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45221408221998</v>
+        <v>0.452298918345791</v>
       </c>
       <c r="L4" t="n">
-        <v>0.515245282652307</v>
+        <v>0.525032772881734</v>
       </c>
       <c r="M4" t="n">
         <v>0.576652219380058</v>
       </c>
       <c r="N4" t="n">
-        <v>0.574598398827391</v>
+        <v>0.574624521327971</v>
       </c>
     </row>
     <row r="5">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.164005958768927</v>
+        <v>0.16455410482696</v>
       </c>
       <c r="C5" t="n">
         <v>0.138418508709548</v>
@@ -606,16 +606,16 @@
         <v>0.153167732379229</v>
       </c>
       <c r="K5" t="n">
-        <v>0.222600284661277</v>
+        <v>0.222495975817485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.113608248752788</v>
+        <v>0.117168875472553</v>
       </c>
       <c r="M5" t="n">
         <v>0.0700225582989938</v>
       </c>
       <c r="N5" t="n">
-        <v>0.199890167530991</v>
+        <v>0.199940105738939</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_positive.xlsx
@@ -447,7 +447,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2455593528023</v>
+        <v>0.245019048457884</v>
       </c>
       <c r="C2" t="n">
         <v>0.284827676066753</v>
@@ -477,7 +477,7 @@
         <v>0.170354349596659</v>
       </c>
       <c r="L2" t="n">
-        <v>0.260087165113423</v>
+        <v>0.256226435224205</v>
       </c>
       <c r="M2" t="n">
         <v>0.319866725252478</v>
@@ -491,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.376242148576814</v>
+        <v>0.376320396969186</v>
       </c>
       <c r="C3" t="n">
         <v>0.424026808864038</v>
@@ -518,10 +518,10 @@
         <v>0.391501162760843</v>
       </c>
       <c r="K3" t="n">
-        <v>0.332091953956457</v>
+        <v>0.332091953956456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.368533078351345</v>
+        <v>0.369092200095107</v>
       </c>
       <c r="M3" t="n">
         <v>0.423386545854212</v>
@@ -535,7 +535,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.536095833727937</v>
+        <v>0.536355189218372</v>
       </c>
       <c r="C4" t="n">
         <v>0.532271261948462</v>
@@ -565,7 +565,7 @@
         <v>0.452298918345791</v>
       </c>
       <c r="L4" t="n">
-        <v>0.525032772881734</v>
+        <v>0.526885990432552</v>
       </c>
       <c r="M4" t="n">
         <v>0.576652219380058</v>
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.16455410482696</v>
+        <v>0.164684183327823</v>
       </c>
       <c r="C5" t="n">
         <v>0.138418508709548</v>
@@ -609,7 +609,7 @@
         <v>0.222495975817485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.117168875472553</v>
+        <v>0.118098347836448</v>
       </c>
       <c r="M5" t="n">
         <v>0.0700225582989938</v>
